--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl12-Ccr5.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl12-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ccl12</t>
   </si>
   <si>
     <t>Ccr5</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>21.61156247796</v>
+        <v>0.643692</v>
       </c>
       <c r="H2">
-        <v>21.61156247796</v>
+        <v>1.931076</v>
       </c>
       <c r="I2">
-        <v>0.3997131124158992</v>
+        <v>0.0104284960882177</v>
       </c>
       <c r="J2">
-        <v>0.3997131124158992</v>
+        <v>0.01043598962356505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>41.4148056366349</v>
+        <v>0.1177973333333333</v>
       </c>
       <c r="N2">
-        <v>41.4148056366349</v>
+        <v>0.353392</v>
       </c>
       <c r="O2">
-        <v>0.4218918535179724</v>
+        <v>0.001039436749475816</v>
       </c>
       <c r="P2">
-        <v>0.4218918535179724</v>
+        <v>0.001039896815182703</v>
       </c>
       <c r="Q2">
-        <v>895.0386595287051</v>
+        <v>0.075825201088</v>
       </c>
       <c r="R2">
-        <v>895.0386595287051</v>
+        <v>0.682426809792</v>
       </c>
       <c r="S2">
-        <v>0.1686357058725814</v>
+        <v>1.083976207585826E-05</v>
       </c>
       <c r="T2">
-        <v>0.1686357058725814</v>
+        <v>1.085235237282503E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,185 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>21.61156247796</v>
+        <v>0.643692</v>
       </c>
       <c r="H3">
-        <v>21.61156247796</v>
+        <v>1.931076</v>
       </c>
       <c r="I3">
-        <v>0.3997131124158992</v>
+        <v>0.0104284960882177</v>
       </c>
       <c r="J3">
-        <v>0.3997131124158992</v>
+        <v>0.01043598962356505</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>56.7497009574007</v>
+        <v>0.020824</v>
       </c>
       <c r="N3">
-        <v>56.7497009574007</v>
+        <v>0.062472</v>
       </c>
       <c r="O3">
-        <v>0.5781081464820276</v>
+        <v>0.0001837497527200762</v>
       </c>
       <c r="P3">
-        <v>0.5781081464820276</v>
+        <v>0.0001838310823054676</v>
       </c>
       <c r="Q3">
-        <v>1226.449707846412</v>
+        <v>0.013404242208</v>
       </c>
       <c r="R3">
-        <v>1226.449707846412</v>
+        <v>0.120638179872</v>
       </c>
       <c r="S3">
-        <v>0.2310774065433178</v>
+        <v>1.916233577452284E-06</v>
       </c>
       <c r="T3">
-        <v>0.2310774065433178</v>
+        <v>1.918459267428594E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>32.4561220854458</v>
+        <v>0.643692</v>
       </c>
       <c r="H4">
-        <v>32.4561220854458</v>
+        <v>1.931076</v>
       </c>
       <c r="I4">
-        <v>0.6002868875841008</v>
+        <v>0.0104284960882177</v>
       </c>
       <c r="J4">
-        <v>0.6002868875841008</v>
+        <v>0.01043598962356505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>41.4148056366349</v>
+        <v>54.104803</v>
       </c>
       <c r="N4">
-        <v>41.4148056366349</v>
+        <v>162.314409</v>
       </c>
       <c r="O4">
-        <v>0.4218918535179724</v>
+        <v>0.4774176033527872</v>
       </c>
       <c r="P4">
-        <v>0.4218918535179724</v>
+        <v>0.4776289134370972</v>
       </c>
       <c r="Q4">
-        <v>1344.163987887631</v>
+        <v>34.826828852676</v>
       </c>
       <c r="R4">
-        <v>1344.163987887631</v>
+        <v>313.441459674084</v>
       </c>
       <c r="S4">
-        <v>0.253256147645391</v>
+        <v>0.004978747609010808</v>
       </c>
       <c r="T4">
-        <v>0.253256147645391</v>
+        <v>0.004984530384544198</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.643692</v>
+      </c>
+      <c r="H5">
+        <v>1.931076</v>
+      </c>
+      <c r="I5">
+        <v>0.0104284960882177</v>
+      </c>
+      <c r="J5">
+        <v>0.01043598962356505</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N5">
+        <v>176.802616</v>
+      </c>
+      <c r="O5">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P5">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q5">
+        <v>37.935476499424</v>
+      </c>
+      <c r="R5">
+        <v>341.419288494816</v>
+      </c>
+      <c r="S5">
+        <v>0.005423151321561698</v>
+      </c>
+      <c r="T5">
+        <v>0.00542945026845337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.643692</v>
+      </c>
+      <c r="H6">
+        <v>1.931076</v>
+      </c>
+      <c r="I6">
+        <v>0.0104284960882177</v>
+      </c>
+      <c r="J6">
+        <v>0.01043598962356505</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.150414</v>
+      </c>
+      <c r="N6">
+        <v>0.300828</v>
+      </c>
+      <c r="O6">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P6">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q6">
+        <v>0.09682028848800001</v>
+      </c>
+      <c r="R6">
+        <v>0.5809217309279999</v>
+      </c>
+      <c r="S6">
+        <v>1.384116199187994E-05</v>
+      </c>
+      <c r="T6">
+        <v>9.238158927231542E-06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>26.62426633333333</v>
+      </c>
+      <c r="H7">
+        <v>79.87279899999999</v>
+      </c>
+      <c r="I7">
+        <v>0.4313414759059188</v>
+      </c>
+      <c r="J7">
+        <v>0.4316514220927074</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1177973333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.353392</v>
+      </c>
+      <c r="O7">
+        <v>0.001039436749475816</v>
+      </c>
+      <c r="P7">
+        <v>0.001039896815182703</v>
+      </c>
+      <c r="Q7">
+        <v>3.13626757602311</v>
+      </c>
+      <c r="R7">
+        <v>28.22640818420799</v>
+      </c>
+      <c r="S7">
+        <v>0.0004483521816297492</v>
+      </c>
+      <c r="T7">
+        <v>0.000448872939103291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>26.62426633333333</v>
+      </c>
+      <c r="H8">
+        <v>79.87279899999999</v>
+      </c>
+      <c r="I8">
+        <v>0.4313414759059188</v>
+      </c>
+      <c r="J8">
+        <v>0.4316514220927074</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.020824</v>
+      </c>
+      <c r="N8">
+        <v>0.062472</v>
+      </c>
+      <c r="O8">
+        <v>0.0001837497527200762</v>
+      </c>
+      <c r="P8">
+        <v>0.0001838310823054676</v>
+      </c>
+      <c r="Q8">
+        <v>0.5544237221253332</v>
+      </c>
+      <c r="R8">
+        <v>4.989813499127999</v>
+      </c>
+      <c r="S8">
+        <v>7.92588895356253E-05</v>
+      </c>
+      <c r="T8">
+        <v>7.935094810199664E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>26.62426633333333</v>
+      </c>
+      <c r="H9">
+        <v>79.87279899999999</v>
+      </c>
+      <c r="I9">
+        <v>0.4313414759059188</v>
+      </c>
+      <c r="J9">
+        <v>0.4316514220927074</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>54.104803</v>
+      </c>
+      <c r="N9">
+        <v>162.314409</v>
+      </c>
+      <c r="O9">
+        <v>0.4774176033527872</v>
+      </c>
+      <c r="P9">
+        <v>0.4776289134370972</v>
+      </c>
+      <c r="Q9">
+        <v>1440.500684984532</v>
+      </c>
+      <c r="R9">
+        <v>12964.50616486079</v>
+      </c>
+      <c r="S9">
+        <v>0.2059300136536577</v>
+      </c>
+      <c r="T9">
+        <v>0.2061691997177177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>26.62426633333333</v>
+      </c>
+      <c r="H10">
+        <v>79.87279899999999</v>
+      </c>
+      <c r="I10">
+        <v>0.4313414759059188</v>
+      </c>
+      <c r="J10">
+        <v>0.4316514220927074</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N10">
+        <v>176.802616</v>
+      </c>
+      <c r="O10">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P10">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q10">
+        <v>1569.07997893802</v>
+      </c>
+      <c r="R10">
+        <v>14121.71981044218</v>
+      </c>
+      <c r="S10">
+        <v>0.2243113556657955</v>
+      </c>
+      <c r="T10">
+        <v>0.2245718915116091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>26.62426633333333</v>
+      </c>
+      <c r="H11">
+        <v>79.87279899999999</v>
+      </c>
+      <c r="I11">
+        <v>0.4313414759059188</v>
+      </c>
+      <c r="J11">
+        <v>0.4316514220927074</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.150414</v>
+      </c>
+      <c r="N11">
+        <v>0.300828</v>
+      </c>
+      <c r="O11">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P11">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q11">
+        <v>4.004662396261999</v>
+      </c>
+      <c r="R11">
+        <v>24.02797437757199</v>
+      </c>
+      <c r="S11">
+        <v>0.0005724955153002087</v>
+      </c>
+      <c r="T11">
+        <v>0.0003821069761753657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>34.323415</v>
+      </c>
+      <c r="H12">
+        <v>102.970245</v>
+      </c>
+      <c r="I12">
+        <v>0.5560758857679956</v>
+      </c>
+      <c r="J12">
+        <v>0.5564754615333376</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1177973333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.353392</v>
+      </c>
+      <c r="O12">
+        <v>0.001039436749475816</v>
+      </c>
+      <c r="P12">
+        <v>0.001039896815182703</v>
+      </c>
+      <c r="Q12">
+        <v>4.043206757893334</v>
+      </c>
+      <c r="R12">
+        <v>36.38886082104</v>
+      </c>
+      <c r="S12">
+        <v>0.0005780057111645705</v>
+      </c>
+      <c r="T12">
+        <v>0.0005786770601758424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>34.323415</v>
+      </c>
+      <c r="H13">
+        <v>102.970245</v>
+      </c>
+      <c r="I13">
+        <v>0.5560758857679956</v>
+      </c>
+      <c r="J13">
+        <v>0.5564754615333376</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.020824</v>
+      </c>
+      <c r="N13">
+        <v>0.062472</v>
+      </c>
+      <c r="O13">
+        <v>0.0001837497527200762</v>
+      </c>
+      <c r="P13">
+        <v>0.0001838310823054676</v>
+      </c>
+      <c r="Q13">
+        <v>0.7147507939600001</v>
+      </c>
+      <c r="R13">
+        <v>6.43275714564</v>
+      </c>
+      <c r="S13">
+        <v>0.0001021788065034665</v>
+      </c>
+      <c r="T13">
+        <v>0.0001022974863701081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>32.4561220854458</v>
-      </c>
-      <c r="H5">
-        <v>32.4561220854458</v>
-      </c>
-      <c r="I5">
-        <v>0.6002868875841008</v>
-      </c>
-      <c r="J5">
-        <v>0.6002868875841008</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>56.7497009574007</v>
-      </c>
-      <c r="N5">
-        <v>56.7497009574007</v>
-      </c>
-      <c r="O5">
-        <v>0.5781081464820276</v>
-      </c>
-      <c r="P5">
-        <v>0.5781081464820276</v>
-      </c>
-      <c r="Q5">
-        <v>1841.875222585937</v>
-      </c>
-      <c r="R5">
-        <v>1841.875222585937</v>
-      </c>
-      <c r="S5">
-        <v>0.3470307399387098</v>
-      </c>
-      <c r="T5">
-        <v>0.3470307399387098</v>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>34.323415</v>
+      </c>
+      <c r="H14">
+        <v>102.970245</v>
+      </c>
+      <c r="I14">
+        <v>0.5560758857679956</v>
+      </c>
+      <c r="J14">
+        <v>0.5564754615333376</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>54.104803</v>
+      </c>
+      <c r="N14">
+        <v>162.314409</v>
+      </c>
+      <c r="O14">
+        <v>0.4774176033527872</v>
+      </c>
+      <c r="P14">
+        <v>0.4776289134370972</v>
+      </c>
+      <c r="Q14">
+        <v>1857.061606862245</v>
+      </c>
+      <c r="R14">
+        <v>16713.55446176021</v>
+      </c>
+      <c r="S14">
+        <v>0.2654804166656347</v>
+      </c>
+      <c r="T14">
+        <v>0.2657887700465753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>34.323415</v>
+      </c>
+      <c r="H15">
+        <v>102.970245</v>
+      </c>
+      <c r="I15">
+        <v>0.5560758857679956</v>
+      </c>
+      <c r="J15">
+        <v>0.5564754615333376</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N15">
+        <v>176.802616</v>
+      </c>
+      <c r="O15">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P15">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q15">
+        <v>2022.823187351214</v>
+      </c>
+      <c r="R15">
+        <v>18205.40868616092</v>
+      </c>
+      <c r="S15">
+        <v>0.2891772360348748</v>
+      </c>
+      <c r="T15">
+        <v>0.2895131130820119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>34.323415</v>
+      </c>
+      <c r="H16">
+        <v>102.970245</v>
+      </c>
+      <c r="I16">
+        <v>0.5560758857679956</v>
+      </c>
+      <c r="J16">
+        <v>0.5564754615333376</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.150414</v>
+      </c>
+      <c r="N16">
+        <v>0.300828</v>
+      </c>
+      <c r="O16">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P16">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q16">
+        <v>5.16272214381</v>
+      </c>
+      <c r="R16">
+        <v>30.97633286286</v>
+      </c>
+      <c r="S16">
+        <v>0.0007380485498181146</v>
+      </c>
+      <c r="T16">
+        <v>0.0004926038582044255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.132963</v>
+      </c>
+      <c r="H17">
+        <v>0.265926</v>
+      </c>
+      <c r="I17">
+        <v>0.002154142237867939</v>
+      </c>
+      <c r="J17">
+        <v>0.001437126750390021</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1177973333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.353392</v>
+      </c>
+      <c r="O17">
+        <v>0.001039436749475816</v>
+      </c>
+      <c r="P17">
+        <v>0.001039896815182703</v>
+      </c>
+      <c r="Q17">
+        <v>0.015662686832</v>
+      </c>
+      <c r="R17">
+        <v>0.09397612099199999</v>
+      </c>
+      <c r="S17">
+        <v>2.23909460563801E-06</v>
+      </c>
+      <c r="T17">
+        <v>1.49446353074445E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+      <c r="G18">
+        <v>0.132963</v>
+      </c>
+      <c r="H18">
+        <v>0.265926</v>
+      </c>
+      <c r="I18">
+        <v>0.002154142237867939</v>
+      </c>
+      <c r="J18">
+        <v>0.001437126750390021</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.020824</v>
+      </c>
+      <c r="N18">
+        <v>0.062472</v>
+      </c>
+      <c r="O18">
+        <v>0.0001837497527200762</v>
+      </c>
+      <c r="P18">
+        <v>0.0001838310823054676</v>
+      </c>
+      <c r="Q18">
+        <v>0.002768821512</v>
+      </c>
+      <c r="R18">
+        <v>0.016612929072</v>
+      </c>
+      <c r="S18">
+        <v>3.958231035321053E-07</v>
+      </c>
+      <c r="T18">
+        <v>2.641885659343372E-07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.132963</v>
+      </c>
+      <c r="H19">
+        <v>0.265926</v>
+      </c>
+      <c r="I19">
+        <v>0.002154142237867939</v>
+      </c>
+      <c r="J19">
+        <v>0.001437126750390021</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>54.104803</v>
+      </c>
+      <c r="N19">
+        <v>162.314409</v>
+      </c>
+      <c r="O19">
+        <v>0.4774176033527872</v>
+      </c>
+      <c r="P19">
+        <v>0.4776289134370972</v>
+      </c>
+      <c r="Q19">
+        <v>7.193936921289001</v>
+      </c>
+      <c r="R19">
+        <v>43.163621527734</v>
+      </c>
+      <c r="S19">
+        <v>0.001028425424483921</v>
+      </c>
+      <c r="T19">
+        <v>0.0006864132882601722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.132963</v>
+      </c>
+      <c r="H20">
+        <v>0.265926</v>
+      </c>
+      <c r="I20">
+        <v>0.002154142237867939</v>
+      </c>
+      <c r="J20">
+        <v>0.001437126750390021</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>58.93420533333333</v>
+      </c>
+      <c r="N20">
+        <v>176.802616</v>
+      </c>
+      <c r="O20">
+        <v>0.5200319658449</v>
+      </c>
+      <c r="P20">
+        <v>0.5202621374970865</v>
+      </c>
+      <c r="Q20">
+        <v>7.836068743736</v>
+      </c>
+      <c r="R20">
+        <v>47.016412462416</v>
+      </c>
+      <c r="S20">
+        <v>0.001120222822667996</v>
+      </c>
+      <c r="T20">
+        <v>0.0007476826350121542</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.132963</v>
+      </c>
+      <c r="H21">
+        <v>0.265926</v>
+      </c>
+      <c r="I21">
+        <v>0.002154142237867939</v>
+      </c>
+      <c r="J21">
+        <v>0.001437126750390021</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.150414</v>
+      </c>
+      <c r="N21">
+        <v>0.300828</v>
+      </c>
+      <c r="O21">
+        <v>0.001327244300117055</v>
+      </c>
+      <c r="P21">
+        <v>0.0008852211683280384</v>
+      </c>
+      <c r="Q21">
+        <v>0.019999496682</v>
+      </c>
+      <c r="R21">
+        <v>0.079997986728</v>
+      </c>
+      <c r="S21">
+        <v>2.859073006851618E-06</v>
+      </c>
+      <c r="T21">
+        <v>1.272175021015732E-06</v>
       </c>
     </row>
   </sheetData>
